--- a/Common/BaoJun_Api_case.xlsx
+++ b/Common/BaoJun_Api_case.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_data1" sheetId="1" r:id="rId1"/>
-    <sheet name="test_data2" sheetId="3" r:id="rId2"/>
+    <sheet name="test_data2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -69,9 +69,6 @@
     <t>{"Content-Type":"application/json"}</t>
   </si>
   <si>
-    <t>https://paytest.baojunev.com/ticket/api/ticket/apply</t>
-  </si>
-  <si>
     <t>{"type":"1","subOrderNo":"190723090000102","itemOrderNo":"j7n148011698064951","oriAmount":"0.01","defAmount":"0.01","userExpressCorp":"","userExpressNo":"","applyReason":"不符合标准","mainOrderNo":"1907230900001"}</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>put</t>
   </si>
   <si>
-    <t>https://paytest.baojunev.com/ticket/api/ticket/approve</t>
-  </si>
-  <si>
     <t>{"ticketNo":"${ticketNo}","type":1,"merExpressNo":"","merExpressCorp":""}</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>type为1:不填写退款金额</t>
   </si>
   <si>
-    <t>https://paytest.baojunev.com/ticketapi/ticket/apply</t>
-  </si>
-  <si>
     <t>{"type":"1","subOrderNo":"190801140000101","itemOrderNo":"j81168686908064951","oriAmount":"0.02","defAmount":"","userExpressCorp":"","userExpressNo":"","applyReason":"不符合标准","mainOrderNo":"1908011400001"}</t>
   </si>
   <si>
@@ -154,6 +145,17 @@
   </si>
   <si>
     <t>{"type":"2","subOrderNo":"190801150000101","itemOrderNo":"j81127760373064951","oriAmount":"","defAmount":"0.01","userExpressCorp":"","userExpressNo":"","applyReason":"不符合标准","mainOrderNo":"1908011500001"}</t>
+  </si>
+  <si>
+    <t>http://172.22.14.89:8000/ticket/api/ticket/apply</t>
+  </si>
+  <si>
+    <t>http://172.22.14.89:8000/ticket/api/ticket/approve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.22.14.89:8000/ticket/api/ticket/apply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -558,8 +560,8 @@
     <col min="8" max="8" width="79.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
-    <col min="11" max="58" width="9" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9" style="1"/>
+    <col min="11" max="59" width="9" style="1" customWidth="1"/>
+    <col min="60" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -608,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
@@ -624,28 +626,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -662,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -678,8 +680,8 @@
     <col min="8" max="8" width="81" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.1640625" style="1" customWidth="1"/>
-    <col min="11" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="23" width="10.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -719,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -728,19 +730,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -748,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -757,19 +759,19 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>-1</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -786,19 +788,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>-1</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -806,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -815,19 +817,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>-1</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -835,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -844,19 +846,19 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -864,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -873,19 +875,19 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>-1</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -902,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>-1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -922,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -931,33 +933,23 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1">
         <v>-1</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>